--- a/autoChectWork/动态考勤表.xlsx
+++ b/autoChectWork/动态考勤表.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\py_auto_study\autoChectWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68CA977-FB15-4C57-BAF8-12CBA0B8EE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74825F90-C971-42E2-AE8E-A31E9F910B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9210" yWindow="2955" windowWidth="16395" windowHeight="11910" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="考勤表" sheetId="1" r:id="rId1"/>
     <sheet name="计算工作日" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
-    <sheet name="计算工作日 (2)" sheetId="3" r:id="rId4"/>
+    <sheet name="计算工作日 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A">Sheet2!$A$1:$A$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">考勤表!$A$1:$AR$24</definedName>
+    <definedName name="A">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">考勤表!$A$1:$AR$23</definedName>
     <definedName name="调休上班">计算工作日!$H$2:$H$8</definedName>
     <definedName name="节假日">计算工作日!$G$2:$G$32</definedName>
   </definedNames>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
   <si>
     <t>丁希乐</t>
   </si>
@@ -166,10 +165,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>缺勤总计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>出勤率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -266,14 +261,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>医保中心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>待完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -287,10 +274,6 @@
   </si>
   <si>
     <t>1、根据考勤率，对部门排序分组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、打印输出，请假数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -318,22 +301,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>代码调整：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>部门名称+出勤率数值  坐标；出勤率分组的坐标位置</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>部门总人数、缺勤率、缺勤人次 函数（手动选）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -382,6 +349,77 @@
     <t>调</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>2、打印输出，请假数据（做表格）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出勤率排名：</t>
+  </si>
+  <si>
+    <t>＜90%</t>
+  </si>
+  <si>
+    <t>100%＞x≥90%</t>
+  </si>
+  <si>
+    <t>=100%</t>
+  </si>
+  <si>
+    <t>事假0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计=（）+0.5*计数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>代码调整：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门名称+出勤率数值  坐标；出勤率分组的坐标位置；分组排名的坐标也是手动的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心:96.97%、医:98.58%。</t>
+  </si>
+  <si>
+    <t>中:100.00%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保:89.39%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -390,10 +428,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="[$-804]aaa;@"/>
-    <numFmt numFmtId="180" formatCode="[$-804]aaaa;@"/>
-    <numFmt numFmtId="181" formatCode="aaa"/>
+    <numFmt numFmtId="178" formatCode="[$-804]aaaa;@"/>
+    <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +521,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -532,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -625,11 +684,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -651,10 +781,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -689,31 +815,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -727,36 +858,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -798,21 +956,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -841,307 +992,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1421,95 +1271,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT43"/>
+  <dimension ref="A1:AU62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AF24" sqref="AF24"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="32" width="3.125" customWidth="1"/>
     <col min="33" max="33" width="3" customWidth="1"/>
-    <col min="34" max="43" width="3.125" customWidth="1"/>
-    <col min="45" max="45" width="6.875" customWidth="1"/>
-    <col min="46" max="46" width="6.375" customWidth="1"/>
+    <col min="34" max="39" width="3.125" customWidth="1"/>
+    <col min="40" max="40" width="4.25" customWidth="1"/>
+    <col min="41" max="43" width="3.125" customWidth="1"/>
+    <col min="44" max="44" width="4.75" style="32" customWidth="1"/>
+    <col min="45" max="46" width="6.875" customWidth="1"/>
+    <col min="47" max="47" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="I3" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="55"/>
       <c r="K3" s="5" t="s">
         <v>24</v>
       </c>
@@ -1544,12 +1401,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="D4" s="43">
+      <c r="D4" s="46">
         <v>2022</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="46"/>
       <c r="F4" t="s">
         <v>14</v>
       </c>
@@ -1590,19 +1447,18 @@
       <c r="U4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="21">
-        <f>计算工作日!D3</f>
-        <v>16</v>
+      <c r="X4" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="19">
+        <v>22</v>
       </c>
       <c r="AD4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>25</v>
@@ -1635,129 +1491,129 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="50">
+      <c r="B5" s="37">
         <f>DATE(D4,G4,1)</f>
         <v>44652</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="38">
         <f>B5+1</f>
         <v>44653</v>
       </c>
-      <c r="D5" s="51">
-        <f t="shared" ref="D5:AF5" si="0">C5+1</f>
+      <c r="D5" s="38">
+        <f t="shared" ref="D5:AC5" si="0">C5+1</f>
         <v>44654</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="38">
         <f t="shared" si="0"/>
         <v>44655</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="38">
         <f t="shared" si="0"/>
         <v>44656</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="38">
         <f t="shared" si="0"/>
         <v>44657</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="38">
         <f t="shared" si="0"/>
         <v>44658</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="38">
         <f t="shared" si="0"/>
         <v>44659</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="38">
         <f t="shared" si="0"/>
         <v>44660</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="38">
         <f t="shared" si="0"/>
         <v>44661</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="38">
         <f t="shared" si="0"/>
         <v>44662</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="38">
         <f t="shared" si="0"/>
         <v>44663</v>
       </c>
-      <c r="N5" s="51">
+      <c r="N5" s="38">
         <f t="shared" si="0"/>
         <v>44664</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="38">
         <f t="shared" si="0"/>
         <v>44665</v>
       </c>
-      <c r="P5" s="51">
+      <c r="P5" s="38">
         <f t="shared" si="0"/>
         <v>44666</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="38">
         <f t="shared" si="0"/>
         <v>44667</v>
       </c>
-      <c r="R5" s="51">
+      <c r="R5" s="38">
         <f t="shared" si="0"/>
         <v>44668</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="38">
         <f t="shared" si="0"/>
         <v>44669</v>
       </c>
-      <c r="T5" s="51">
+      <c r="T5" s="38">
         <f t="shared" si="0"/>
         <v>44670</v>
       </c>
-      <c r="U5" s="51">
+      <c r="U5" s="38">
         <f t="shared" si="0"/>
         <v>44671</v>
       </c>
-      <c r="V5" s="51">
+      <c r="V5" s="38">
         <f t="shared" si="0"/>
         <v>44672</v>
       </c>
-      <c r="W5" s="51">
+      <c r="W5" s="38">
         <f t="shared" si="0"/>
         <v>44673</v>
       </c>
-      <c r="X5" s="51">
+      <c r="X5" s="38">
         <f t="shared" si="0"/>
         <v>44674</v>
       </c>
-      <c r="Y5" s="51">
+      <c r="Y5" s="38">
         <f t="shared" si="0"/>
         <v>44675</v>
       </c>
-      <c r="Z5" s="51">
+      <c r="Z5" s="38">
         <f t="shared" si="0"/>
         <v>44676</v>
       </c>
-      <c r="AA5" s="51">
+      <c r="AA5" s="38">
         <f t="shared" si="0"/>
         <v>44677</v>
       </c>
-      <c r="AB5" s="51">
+      <c r="AB5" s="38">
         <f t="shared" si="0"/>
         <v>44678</v>
       </c>
-      <c r="AC5" s="51">
+      <c r="AC5" s="38">
         <f t="shared" si="0"/>
         <v>44679</v>
       </c>
-      <c r="AD5" s="51">
+      <c r="AD5" s="38">
         <f>IFERROR(IF(MONTH(AC5)=MONTH(AC5+1),AC5+1,""),"")</f>
         <v>44680</v>
       </c>
-      <c r="AE5" s="51">
+      <c r="AE5" s="38">
         <f t="shared" ref="AE5:AF5" si="1">IFERROR(IF(MONTH(AD5)=MONTH(AD5+1),AD5+1,""),"")</f>
         <v>44681</v>
       </c>
-      <c r="AF5" s="51" t="str">
+      <c r="AF5" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1772,9 +1628,9 @@
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>62</v>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="B6" s="2">
         <f>DATE(D4,G4,1)</f>
@@ -1931,14 +1787,14 @@
         <v>23</v>
       </c>
       <c r="AR6" s="11" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU6" s="11"/>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1968,67 +1824,63 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
-      <c r="AE7" s="1">
-        <v>0</v>
-      </c>
+      <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AH7" s="1" t="str">
-        <f t="shared" ref="AH7:AQ24" si="4">IF(COUNTIF($B7:$AF7,AH$6)&gt;0,COUNTIF($B7:$AF7,AH$6),"")</f>
-        <v/>
-      </c>
-      <c r="AI7" s="1">
+        <f t="shared" ref="AH7:AQ25" si="4">IF(COUNTIF($B7:$AF7,AH$6)&gt;0,COUNTIF($B7:$AF7,AH$6),"")</f>
+        <v/>
+      </c>
+      <c r="AI7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ7" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AK7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AL7" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AK7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AL7" s="1">
-        <f t="shared" si="4"/>
+      <c r="AM7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AO7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AP7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AQ7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR7" s="40">
+        <f>SUM(AH7:AQ7)</f>
         <v>2</v>
       </c>
-      <c r="AM7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AN7" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AO7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AP7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AQ7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AR7" s="12">
-        <f>SUM(AH7:AQ7)</f>
-        <v>5</v>
-      </c>
-      <c r="AS7" s="22"/>
-      <c r="AT7" s="22"/>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AS7" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU7" s="20"/>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2056,9 +1908,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -2066,9 +1916,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AH8" s="1" t="str">
@@ -2083,18 +1931,18 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AK8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AL8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AM8" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AL8" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AM8" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="AN8" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2111,14 +1959,14 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR8" s="12">
-        <f t="shared" ref="AR8:AR23" si="5">SUM(AH8:AQ8)</f>
-        <v>4</v>
-      </c>
-      <c r="AS8" s="22"/>
-      <c r="AT8" s="22"/>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AR8" s="40">
+        <f t="shared" ref="AR8:AR22" si="5">SUM(AH8:AQ8)</f>
+        <v>2</v>
+      </c>
+      <c r="AS8" s="20"/>
+      <c r="AU8" s="20"/>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2134,9 +1982,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -2159,9 +2005,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI9" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="AI9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="AJ9" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2195,14 +2041,14 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR9" s="12">
+      <c r="AR9" s="40">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22"/>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="20"/>
+      <c r="AU9" s="20"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2215,9 +2061,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -2225,22 +2069,16 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
+      <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -2249,17 +2087,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI10" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AK10" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="AI10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="AL10" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2285,14 +2123,14 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR10" s="12">
+      <c r="AR10" s="40">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AS10" s="22"/>
-      <c r="AT10" s="22"/>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="20"/>
+      <c r="AU10" s="20"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -2308,12 +2146,8 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2321,9 +2155,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -2349,13 +2181,13 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL11" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AM11" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="AL11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AM11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="AN11" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2369,18 +2201,18 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AQ11" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AR11" s="12">
+      <c r="AQ11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR11" s="40">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AS11" s="22"/>
-      <c r="AT11" s="22"/>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="20"/>
+      <c r="AU11" s="20"/>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -2410,9 +2242,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -2427,46 +2257,46 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AJ12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AL12" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AK12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AL12" s="1">
-        <f t="shared" si="4"/>
+      <c r="AM12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AO12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AP12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AQ12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR12" s="40">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AM12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AN12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AO12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AP12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AQ12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AR12" s="12">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AS12" s="22"/>
-      <c r="AT12" s="22"/>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AS12" s="20"/>
+      <c r="AU12" s="20"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -2497,9 +2327,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
@@ -2507,9 +2335,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI13" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="AI13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="AJ13" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2543,14 +2371,14 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR13" s="12">
+      <c r="AR13" s="40">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AS13" s="22"/>
-      <c r="AT13" s="22"/>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="20"/>
+      <c r="AU13" s="20"/>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -2560,9 +2388,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2599,9 +2425,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AK14" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="AK14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="AL14" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2627,14 +2453,14 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR14" s="12">
+      <c r="AR14" s="40">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AS14" s="22"/>
-      <c r="AT14" s="22"/>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="20"/>
+      <c r="AU14" s="20"/>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -2651,18 +2477,14 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="1">
-        <v>0</v>
-      </c>
+      <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -2677,13 +2499,13 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI15" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="AI15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="AK15" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2713,14 +2535,14 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR15" s="12">
+      <c r="AR15" s="40">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AS15" s="22"/>
-      <c r="AT15" s="22"/>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="20"/>
+      <c r="AU15" s="20"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -2740,9 +2562,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
+      <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -2754,18 +2574,16 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="1">
-        <v>0</v>
-      </c>
+      <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AH16" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI16" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+      <c r="AI16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="AJ16" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2799,14 +2617,14 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR16" s="12">
+      <c r="AR16" s="40">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AS16" s="22"/>
-      <c r="AT16" s="22"/>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="20"/>
+      <c r="AU16" s="20"/>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -2830,21 +2648,15 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AH17" s="1" t="str">
@@ -2855,9 +2667,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ17" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
+      <c r="AJ17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="AK17" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2887,14 +2699,14 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR17" s="12">
+      <c r="AR17" s="40">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AS17" s="22"/>
-      <c r="AT17" s="22"/>
-    </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="20"/>
+      <c r="AU17" s="20"/>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -2920,9 +2732,7 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
@@ -2939,9 +2749,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ18" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="AJ18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="AK18" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2971,16 +2781,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR18" s="12">
+      <c r="AR18" s="40">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AS18" s="22"/>
-      <c r="AT18" s="22"/>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="20"/>
+      <c r="AU18" s="20"/>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2999,9 +2809,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -3027,9 +2835,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AK19" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="AK19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="AL19" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3055,14 +2863,14 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR19" s="12">
+      <c r="AR19" s="40">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AS19" s="22"/>
-      <c r="AT19" s="22"/>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="20"/>
+      <c r="AU19" s="20"/>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -3071,9 +2879,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3086,9 +2892,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -3105,13 +2909,13 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI20" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="AI20" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ20" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="AK20" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3141,16 +2945,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR20" s="12">
+      <c r="AR20" s="40">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AS20" s="22"/>
-      <c r="AT20" s="22"/>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="20"/>
+      <c r="AU20" s="20"/>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3164,22 +2968,16 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="1">
-        <v>0</v>
-      </c>
+      <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
@@ -3193,13 +2991,13 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI21" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+      <c r="AI21" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ21" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="AK21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3229,460 +3027,1523 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR21" s="12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AS21" s="22"/>
-      <c r="AT21" s="22"/>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AH22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AI22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AJ22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AK22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AL22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AM22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AN22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AO22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AP22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AQ22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AR22" s="12">
+      <c r="AR21" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AS22" s="22"/>
-      <c r="AT22" s="22"/>
-    </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="AS21" s="20"/>
+      <c r="AU21" s="20"/>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AH23" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AI23" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AJ23" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AK23" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AL23" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AM23" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AN23" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AO23" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AP23" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AQ23" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AR23" s="12">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AH22" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI22" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ22" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK22" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AL22" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AM22" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN22" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AO22" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AP22" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AQ22" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR22" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AS23" s="22"/>
-      <c r="AT23" s="22"/>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="41" t="s">
+      <c r="AS22" s="20"/>
+      <c r="AU22" s="20"/>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD23" s="53"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="23">
+        <f>COUNT(AR7:AR22)</f>
+        <v>16</v>
+      </c>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ23" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="50">
+        <f>(AF23*AC4-AR23)/(AF23*AC4)</f>
+        <v>0.98579545454545459</v>
+      </c>
+      <c r="AN23" s="50"/>
+      <c r="AO23" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP23" s="53"/>
+      <c r="AQ23" s="53"/>
+      <c r="AR23" s="33">
+        <f>SUM(AR7:AR22)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AH25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK25" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AL25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AM25" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AN25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AO25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AP25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AQ25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR25" s="40">
+        <f t="shared" ref="AR25:AR27" si="6">SUM(AH25:AQ25)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AH26" s="1" t="str">
+        <f t="shared" ref="AH26:AQ27" si="7">IF(COUNTIF($B26:$AF26,AH$6)&gt;0,COUNTIF($B26:$AF26,AH$6),"")</f>
+        <v/>
+      </c>
+      <c r="AI26" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AJ26" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AK26" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AL26" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AM26" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AN26" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AO26" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AP26" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AQ26" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AR26" s="40">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AH27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AJ27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AK27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AL27" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AM27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AN27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AO27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AP27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AQ27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AR27" s="40">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AC28" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD28" s="53"/>
+      <c r="AE28" s="53"/>
+      <c r="AF28" s="23">
+        <f>COUNT(AR25:AR27)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ28" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="50">
+        <f>(AF28*$AC$4-AR28)/(AF28*$AC$4)</f>
+        <v>0.89393939393939392</v>
+      </c>
+      <c r="AN28" s="50"/>
+      <c r="AO28" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP28" s="53"/>
+      <c r="AQ28" s="53"/>
+      <c r="AR28" s="33">
+        <f>SUM(AR25:AR27)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AH30" s="1" t="str">
+        <f t="shared" ref="AH30:AQ32" si="8">IF(COUNTIF($B30:$AF30,AH$6)&gt;0,COUNTIF($B30:$AF30,AH$6),"")</f>
+        <v/>
+      </c>
+      <c r="AI30" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AJ30" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AK30" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AL30" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AM30" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN30" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO30" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP30" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ30" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AR30" s="40">
+        <f t="shared" ref="AR30:AR32" si="9">SUM(AH30:AQ30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AH31" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI31" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AJ31" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AK31" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AL31" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AM31" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN31" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO31" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP31" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ31" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AR31" s="40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AH32" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI32" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AJ32" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AK32" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AL32" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AM32" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN32" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO32" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP32" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ32" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AR32" s="40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC33" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD33" s="53"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="23">
+        <f>COUNT(AR30:AR32)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ33" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK33" s="56"/>
+      <c r="AL33" s="56"/>
+      <c r="AM33" s="50">
+        <f>(AF33*$AC$4-AR33)/(AF33*$AC$4)</f>
+        <v>1</v>
+      </c>
+      <c r="AN33" s="50"/>
+      <c r="AO33" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP33" s="53"/>
+      <c r="AQ33" s="53"/>
+      <c r="AR33" s="33">
+        <f>SUM(AR30:AR32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A34" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AH35" s="1" t="str">
+        <f t="shared" ref="AH35:AQ37" si="10">IF(COUNTIF($B35:$AF35,AH$6)&gt;0,COUNTIF($B35:$AF35,AH$6),"")</f>
+        <v/>
+      </c>
+      <c r="AI35" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AJ35" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AK35" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AL35" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AM35" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AN35" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AO35" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP35" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ35" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AR35" s="40">
+        <f t="shared" ref="AR35:AR37" si="11">SUM(AH35:AQ35)</f>
+        <v>0</v>
+      </c>
+      <c r="AS35" s="20"/>
+      <c r="AU35" s="20"/>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AH36" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AI36" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AJ36" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AK36" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AL36" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AM36" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AN36" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AO36" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP36" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ36" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AR36" s="40">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AS36" s="20"/>
+      <c r="AU36" s="20"/>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AH37" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI37" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AJ37" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AK37" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AL37" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AM37" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AN37" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AO37" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP37" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ37" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AR37" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AS37" s="20"/>
+      <c r="AU37" s="20"/>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AC38" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD38" s="53"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="23">
+        <f>COUNT(AR35:AR37)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ38" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK38" s="56"/>
+      <c r="AL38" s="56"/>
+      <c r="AM38" s="50">
+        <f>(AF38*$AC$4-AR38)/(AF38*$AC$4)</f>
+        <v>0.96969696969696972</v>
+      </c>
+      <c r="AN38" s="50"/>
+      <c r="AO38" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP38" s="53"/>
+      <c r="AQ38" s="53"/>
+      <c r="AR38" s="33">
+        <f>SUM(AR35:AR37)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A41" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="39"/>
+      <c r="AH41" s="39"/>
+      <c r="AI41" s="39"/>
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="39"/>
+      <c r="AL41" s="39"/>
+      <c r="AM41" s="39"/>
+      <c r="AN41" s="39"/>
+      <c r="AO41" s="39"/>
+      <c r="AP41" s="39"/>
+      <c r="AQ41" s="39"/>
+      <c r="AR41" s="42"/>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A42" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="59"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="59"/>
+      <c r="AE42" s="59"/>
+      <c r="AF42" s="59"/>
+      <c r="AG42" s="59"/>
+      <c r="AH42" s="59"/>
+      <c r="AI42" s="59"/>
+      <c r="AJ42" s="59"/>
+      <c r="AK42" s="59"/>
+      <c r="AL42" s="59"/>
+      <c r="AM42" s="59"/>
+      <c r="AN42" s="59"/>
+      <c r="AO42" s="59"/>
+      <c r="AP42" s="59"/>
+      <c r="AQ42" s="59"/>
+      <c r="AR42" s="60"/>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A43" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="57"/>
+      <c r="X43" s="57"/>
+      <c r="Y43" s="57"/>
+      <c r="Z43" s="57"/>
+      <c r="AA43" s="57"/>
+      <c r="AB43" s="57"/>
+      <c r="AC43" s="57"/>
+      <c r="AD43" s="57"/>
+      <c r="AE43" s="57"/>
+      <c r="AF43" s="57"/>
+      <c r="AG43" s="57"/>
+      <c r="AH43" s="57"/>
+      <c r="AI43" s="57"/>
+      <c r="AJ43" s="57"/>
+      <c r="AK43" s="57"/>
+      <c r="AL43" s="57"/>
+      <c r="AM43" s="57"/>
+      <c r="AN43" s="57"/>
+      <c r="AO43" s="57"/>
+      <c r="AP43" s="57"/>
+      <c r="AQ43" s="57"/>
+      <c r="AR43" s="57"/>
+    </row>
+    <row r="44" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="52"/>
+      <c r="B44" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="53"/>
+      <c r="X44" s="53"/>
+      <c r="Y44" s="53"/>
+      <c r="Z44" s="53"/>
+      <c r="AA44" s="53"/>
+      <c r="AB44" s="53"/>
+      <c r="AC44" s="53"/>
+      <c r="AD44" s="53"/>
+      <c r="AE44" s="53"/>
+      <c r="AF44" s="53"/>
+      <c r="AG44" s="53"/>
+      <c r="AH44" s="53"/>
+      <c r="AI44" s="53"/>
+      <c r="AJ44" s="53"/>
+      <c r="AK44" s="53"/>
+      <c r="AL44" s="53"/>
+      <c r="AM44" s="53"/>
+      <c r="AN44" s="53"/>
+      <c r="AO44" s="53"/>
+      <c r="AP44" s="53"/>
+      <c r="AQ44" s="53"/>
+      <c r="AR44" s="53"/>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A45" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="53"/>
+      <c r="W45" s="53"/>
+      <c r="X45" s="53"/>
+      <c r="Y45" s="53"/>
+      <c r="Z45" s="53"/>
+      <c r="AA45" s="53"/>
+      <c r="AB45" s="53"/>
+      <c r="AC45" s="53"/>
+      <c r="AD45" s="53"/>
+      <c r="AE45" s="53"/>
+      <c r="AF45" s="53"/>
+      <c r="AG45" s="53"/>
+      <c r="AH45" s="53"/>
+      <c r="AI45" s="53"/>
+      <c r="AJ45" s="53"/>
+      <c r="AK45" s="53"/>
+      <c r="AL45" s="53"/>
+      <c r="AM45" s="53"/>
+      <c r="AN45" s="53"/>
+      <c r="AO45" s="53"/>
+      <c r="AP45" s="53"/>
+      <c r="AQ45" s="53"/>
+      <c r="AR45" s="53"/>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A46" s="41"/>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A47" s="41"/>
+    </row>
+    <row r="48" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="51"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="31"/>
+      <c r="B51" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="26"/>
+      <c r="B52" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+    </row>
+    <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="18"/>
+      <c r="B53" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="61"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="61"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="25">
-        <f>COUNT(AR7:AR23)</f>
-        <v>17</v>
-      </c>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AJ24" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK24" s="42"/>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="40">
-        <f>(AF24*AC4-AR24)/(AF24*AC4)</f>
-        <v>0.87132352941176472</v>
-      </c>
-      <c r="AN24" s="40"/>
-      <c r="AO24" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP24" s="41"/>
-      <c r="AQ24" s="41"/>
-      <c r="AR24" s="25">
-        <f>SUM(AR7:AR23)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-    </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-    </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-    </row>
-    <row r="32" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-    </row>
-    <row r="34" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
+      <c r="B57" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-    </row>
-    <row r="43" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B58" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+    </row>
+    <row r="62" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="33">
+    <mergeCell ref="B48:M48"/>
+    <mergeCell ref="B44:AR44"/>
+    <mergeCell ref="B53:L55"/>
+    <mergeCell ref="B62:K62"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="B51:M51"/>
+    <mergeCell ref="B52:N52"/>
+    <mergeCell ref="B57:K57"/>
+    <mergeCell ref="B42:AR42"/>
+    <mergeCell ref="AO23:AQ23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="AJ23:AL23"/>
+    <mergeCell ref="AJ28:AL28"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="AO28:AQ28"/>
+    <mergeCell ref="AO38:AQ38"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A1:AF2"/>
     <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="A31:S31"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="AO24:AQ24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="AJ24:AL24"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="B33:N33"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="A50:S50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B45:AR45"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO33:AQ33"/>
+    <mergeCell ref="B43:AR43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A6:AF23 A26">
-    <cfRule type="expression" dxfId="9" priority="6">
+  <conditionalFormatting sqref="A6:AF22 A25:AF27 A24">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>CELL("COL")=COLUMN()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>CELL("ROW")=ROW()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>CELL("COL")=COLUMN()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>CELL("ROW")=ROW()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:AF23">
-    <cfRule type="expression" dxfId="5" priority="1">
+  <conditionalFormatting sqref="B5:AF22">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>NETWORKDAYS.INTL(B$6,B$6,1,节假日)+COUNTIFS(调休上班,"&gt;="&amp;B$6,调休上班,"&lt;="&amp;B$6)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:AF27">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>NETWORKDAYS.INTL(B$6,B$6,1,节假日)+COUNTIFS(调休上班,"&gt;="&amp;B$6,调休上班,"&lt;="&amp;B$6)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:AF32 A29 A34">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>CELL("COL")=COLUMN()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>CELL("ROW")=ROW()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:AF32">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>NETWORKDAYS.INTL(B$6,B$6,1,节假日)+COUNTIFS(调休上班,"&gt;="&amp;B$6,调休上班,"&lt;="&amp;B$6)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:AF37">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>CELL("COL")=COLUMN()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>CELL("ROW")=ROW()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:AF37">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NETWORKDAYS.INTL(B$6,B$6,1,节假日)+COUNTIFS(调休上班,"&gt;="&amp;B$6,调休上班,"&lt;="&amp;B$6)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AF23" xr:uid="{D6C775E3-D80C-4242-B2D1-7BE61BC6714E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AF22 B25:AF27 B30:AF32 B35:AF37" xr:uid="{D6C775E3-D80C-4242-B2D1-7BE61BC6714E}">
       <formula1>$L$4:$U$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -3715,22 +4576,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
       </c>
       <c r="H1" t="s">
         <v>31</v>
@@ -3740,25 +4601,25 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <f>DATE(2022,A2,1)</f>
         <v>44562</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="12">
         <f>EOMONTH(B2,0)</f>
         <v>44592</v>
       </c>
-      <c r="D2" s="48">
-        <f>NETWORKDAYS.INTL($B2,$C2,1,$G$2:$G$32)+COUNTIFS(H:H,"&gt;="&amp;B2,H:H,"&lt;="&amp;C2)</f>
+      <c r="D2" s="35">
+        <f t="shared" ref="D2:D13" si="0">NETWORKDAYS.INTL($B2,$C2,1,$G$2:$G$32)+COUNTIFS(H:H,"&gt;="&amp;B2,H:H,"&lt;="&amp;C2)</f>
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="14">
+        <v>48</v>
+      </c>
+      <c r="G2" s="12">
         <v>44562</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="12">
         <v>44590</v>
       </c>
     </row>
@@ -3766,22 +4627,22 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
-        <f t="shared" ref="B3:B13" si="0">DATE(2022,A3,1)</f>
+      <c r="B3" s="12">
+        <f t="shared" ref="B3:B13" si="1">DATE(2022,A3,1)</f>
         <v>44593</v>
       </c>
-      <c r="C3" s="14">
-        <f t="shared" ref="C3:C13" si="1">EOMONTH(B3,0)</f>
+      <c r="C3" s="12">
+        <f t="shared" ref="C3:C13" si="2">EOMONTH(B3,0)</f>
         <v>44620</v>
       </c>
-      <c r="D3" s="48">
-        <f>NETWORKDAYS.INTL($B3,$C3,1,$G$2:$G$32)+COUNTIFS(H:H,"&gt;="&amp;B3,H:H,"&lt;="&amp;C3)</f>
+      <c r="D3" s="35">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="12">
         <v>44563</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <v>44591</v>
       </c>
     </row>
@@ -3789,22 +4650,22 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
-        <f t="shared" si="0"/>
+      <c r="B4" s="12">
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
-      <c r="C4" s="14">
-        <f t="shared" si="1"/>
+      <c r="C4" s="12">
+        <f t="shared" si="2"/>
         <v>44651</v>
       </c>
-      <c r="D4" s="48">
-        <f>NETWORKDAYS.INTL($B4,$C4,1,$G$2:$G$32)+COUNTIFS(H:H,"&gt;="&amp;B4,H:H,"&lt;="&amp;C4)</f>
+      <c r="D4" s="35">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="12">
         <v>44564</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="12">
         <v>44653</v>
       </c>
     </row>
@@ -3812,25 +4673,25 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="14">
-        <f t="shared" si="0"/>
+      <c r="B5" s="12">
+        <f t="shared" si="1"/>
         <v>44652</v>
       </c>
-      <c r="C5" s="14">
-        <f t="shared" si="1"/>
+      <c r="C5" s="12">
+        <f t="shared" si="2"/>
         <v>44681</v>
       </c>
-      <c r="D5" s="48">
-        <f>NETWORKDAYS.INTL($B5,$C5,1,$G$2:$G$32)+COUNTIFS(H:H,"&gt;="&amp;B5,H:H,"&lt;="&amp;C5)</f>
+      <c r="D5" s="35">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="14">
+        <v>49</v>
+      </c>
+      <c r="G5" s="12">
         <v>44592</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="12">
         <v>44675</v>
       </c>
     </row>
@@ -3838,22 +4699,22 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="14">
-        <f t="shared" si="0"/>
+      <c r="B6" s="12">
+        <f t="shared" si="1"/>
         <v>44682</v>
       </c>
-      <c r="C6" s="14">
-        <f t="shared" si="1"/>
+      <c r="C6" s="12">
+        <f t="shared" si="2"/>
         <v>44712</v>
       </c>
-      <c r="D6" s="48">
-        <f>NETWORKDAYS.INTL($B6,$C6,1,$G$2:$G$32)+COUNTIFS(H:H,"&gt;="&amp;B6,H:H,"&lt;="&amp;C6)</f>
+      <c r="D6" s="35">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <v>44593</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="12">
         <v>44688</v>
       </c>
     </row>
@@ -3861,22 +4722,22 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="14">
-        <f t="shared" si="0"/>
+      <c r="B7" s="12">
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
-      <c r="C7" s="14">
-        <f t="shared" si="1"/>
+      <c r="C7" s="12">
+        <f t="shared" si="2"/>
         <v>44742</v>
       </c>
-      <c r="D7" s="48">
-        <f>NETWORKDAYS.INTL($B7,$C7,1,$G$2:$G$32)+COUNTIFS(H:H,"&gt;="&amp;B7,H:H,"&lt;="&amp;C7)</f>
+      <c r="D7" s="35">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>44594</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <v>44842</v>
       </c>
     </row>
@@ -3884,22 +4745,22 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="14">
-        <f t="shared" si="0"/>
+      <c r="B8" s="12">
+        <f t="shared" si="1"/>
         <v>44743</v>
       </c>
-      <c r="C8" s="14">
-        <f t="shared" si="1"/>
+      <c r="C8" s="12">
+        <f t="shared" si="2"/>
         <v>44773</v>
       </c>
-      <c r="D8" s="48">
-        <f>NETWORKDAYS.INTL($B8,$C8,1,$G$2:$G$32)+COUNTIFS(H:H,"&gt;="&amp;B8,H:H,"&lt;="&amp;C8)</f>
+      <c r="D8" s="35">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <v>44595</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="12">
         <v>44843</v>
       </c>
     </row>
@@ -3907,19 +4768,19 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="14">
-        <f t="shared" si="0"/>
+      <c r="B9" s="12">
+        <f t="shared" si="1"/>
         <v>44774</v>
       </c>
-      <c r="C9" s="14">
-        <f t="shared" si="1"/>
+      <c r="C9" s="12">
+        <f t="shared" si="2"/>
         <v>44804</v>
       </c>
-      <c r="D9" s="48">
-        <f>NETWORKDAYS.INTL($B9,$C9,1,$G$2:$G$32)+COUNTIFS(H:H,"&gt;="&amp;B9,H:H,"&lt;="&amp;C9)</f>
+      <c r="D9" s="35">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <v>44596</v>
       </c>
     </row>
@@ -3927,19 +4788,19 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="14">
-        <f t="shared" si="0"/>
+      <c r="B10" s="12">
+        <f t="shared" si="1"/>
         <v>44805</v>
       </c>
-      <c r="C10" s="14">
-        <f t="shared" si="1"/>
+      <c r="C10" s="12">
+        <f t="shared" si="2"/>
         <v>44834</v>
       </c>
-      <c r="D10" s="48">
-        <f>NETWORKDAYS.INTL($B10,$C10,1,$G$2:$G$32)+COUNTIFS(H:H,"&gt;="&amp;B10,H:H,"&lt;="&amp;C10)</f>
+      <c r="D10" s="35">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <v>44597</v>
       </c>
     </row>
@@ -3947,19 +4808,19 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="14">
-        <f t="shared" si="0"/>
+      <c r="B11" s="12">
+        <f t="shared" si="1"/>
         <v>44835</v>
       </c>
-      <c r="C11" s="14">
-        <f t="shared" si="1"/>
+      <c r="C11" s="12">
+        <f t="shared" si="2"/>
         <v>44865</v>
       </c>
-      <c r="D11" s="48">
-        <f>NETWORKDAYS.INTL($B11,$C11,1,$G$2:$G$32)+COUNTIFS(H:H,"&gt;="&amp;B11,H:H,"&lt;="&amp;C11)</f>
+      <c r="D11" s="35">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <v>44598</v>
       </c>
     </row>
@@ -3967,22 +4828,22 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="14">
-        <f t="shared" si="0"/>
+      <c r="B12" s="12">
+        <f t="shared" si="1"/>
         <v>44866</v>
       </c>
-      <c r="C12" s="14">
-        <f t="shared" si="1"/>
+      <c r="C12" s="12">
+        <f t="shared" si="2"/>
         <v>44895</v>
       </c>
-      <c r="D12" s="48">
-        <f>NETWORKDAYS.INTL($B12,$C12,1,$G$2:$G$32)+COUNTIFS(H:H,"&gt;="&amp;B12,H:H,"&lt;="&amp;C12)</f>
+      <c r="D12" s="35">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="F12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="12">
         <v>44654</v>
       </c>
     </row>
@@ -3990,80 +4851,80 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="14">
-        <f t="shared" si="0"/>
+      <c r="B13" s="12">
+        <f t="shared" si="1"/>
         <v>44896</v>
       </c>
-      <c r="C13" s="14">
-        <f t="shared" si="1"/>
+      <c r="C13" s="12">
+        <f t="shared" si="2"/>
         <v>44926</v>
       </c>
-      <c r="D13" s="48">
-        <f>NETWORKDAYS.INTL($B13,$C13,1,$G$2:$G$32)+COUNTIFS(H:H,"&gt;="&amp;B13,H:H,"&lt;="&amp;C13)</f>
+      <c r="D13" s="35">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <v>44655</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="12">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="12">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="14">
-        <v>44656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="14">
-        <v>44681</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="19"/>
-      <c r="G16" s="14">
+      <c r="D16" s="14"/>
+      <c r="E16" s="17"/>
+      <c r="G16" s="12">
         <v>44682</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <v>44683</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G18" s="14">
+      <c r="G18" s="12">
         <v>44684</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G19" s="14">
+      <c r="G19" s="12">
         <v>44685</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="14">
+        <v>52</v>
+      </c>
+      <c r="G20" s="12">
         <v>44715</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G21" s="14">
+      <c r="G21" s="12">
         <v>44716</v>
       </c>
     </row>
@@ -4072,67 +4933,67 @@
         <f>NETWORKDAYS.INTL(B2,C2,1)</f>
         <v>21</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="12">
         <v>44717</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="14">
+        <v>53</v>
+      </c>
+      <c r="G23" s="12">
         <v>44814</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G24" s="14">
+      <c r="G24" s="12">
         <v>44815</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G25" s="14">
+      <c r="G25" s="12">
         <v>44816</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="14">
+        <v>54</v>
+      </c>
+      <c r="G26" s="12">
         <v>44835</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G27" s="14">
+      <c r="G27" s="12">
         <v>44836</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G28" s="14">
+      <c r="G28" s="12">
         <v>44837</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G29" s="14">
+      <c r="G29" s="12">
         <v>44838</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G30" s="14">
+      <c r="G30" s="12">
         <v>44839</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G31" s="14">
+      <c r="G31" s="12">
         <v>44840</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F32" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="14">
+        <v>69</v>
+      </c>
+      <c r="G32" s="12">
         <v>44841</v>
       </c>
     </row>
@@ -4143,32 +5004,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF22D3DA-D864-4D65-9A10-43C95C0045EC}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14">
-        <v>44562</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
-        <v>44563</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB9D672-0CCB-4045-9DEB-B52C81B3B6C4}">
   <dimension ref="A1:E39"/>
   <sheetViews>
@@ -4185,501 +5020,501 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="14">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12">
         <f>DATE(2022,1,1)</f>
         <v>44562</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="36">
         <f>WEEKDAY(B2)</f>
         <v>7</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>77</v>
+      <c r="D2" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <f>DATE(2022,1,2)</f>
         <v>44563</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="36">
         <f>WEEKDAY(B3)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>77</v>
+      <c r="D3" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <f>DATE(2022,1,3)</f>
         <v>44564</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="36">
         <f>WEEKDAY(B4)</f>
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>77</v>
+      <c r="D4" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>44590</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="36">
         <f t="shared" ref="C5:C39" si="0">WEEKDAY(B5)</f>
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>44591</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="14">
+        <v>49</v>
+      </c>
+      <c r="B7" s="12">
         <f>DATE(2022,1,31)</f>
         <v>44592</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="36">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>77</v>
+      <c r="D7" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>44593</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="36">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>77</v>
+      <c r="D8" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>44594</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>77</v>
+      <c r="D9" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>44595</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>77</v>
+      <c r="D10" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>44596</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="36">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>77</v>
+      <c r="D11" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>44597</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>77</v>
+      <c r="D12" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>44598</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>77</v>
+      <c r="D13" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="14">
+      <c r="B14" s="12">
         <v>44653</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="14">
+      <c r="A15" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="12">
         <v>44654</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>77</v>
+      <c r="D15" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <v>44655</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="36">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>77</v>
+      <c r="D16" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>44656</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="36">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>77</v>
+      <c r="D17" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <v>44675</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="14">
+        <v>51</v>
+      </c>
+      <c r="B19" s="12">
         <v>44681</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>77</v>
+      <c r="D19" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <v>44682</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>77</v>
+      <c r="D20" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <v>44683</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="36">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>77</v>
+      <c r="D21" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="14">
+      <c r="B22" s="12">
         <v>44684</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="36">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>77</v>
+      <c r="D22" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="14">
+      <c r="B23" s="12">
         <v>44685</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>77</v>
+      <c r="D23" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="14">
+      <c r="B24" s="12">
         <v>44688</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="14">
+        <v>52</v>
+      </c>
+      <c r="B25" s="12">
         <v>44715</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="36">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>77</v>
+      <c r="D25" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="14">
+      <c r="B26" s="12">
         <v>44716</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>77</v>
+      <c r="D26" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="14">
+      <c r="B27" s="12">
         <v>44717</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="14"/>
+      <c r="D27" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="14">
+        <v>53</v>
+      </c>
+      <c r="B28" s="12">
         <v>44814</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>77</v>
+      <c r="D28" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="14">
+      <c r="B29" s="12">
         <v>44815</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>77</v>
+      <c r="D29" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="14">
+      <c r="B30" s="12">
         <v>44816</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="36">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>77</v>
+      <c r="D30" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="14">
+        <v>54</v>
+      </c>
+      <c r="B31" s="12">
         <v>44835</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>77</v>
+      <c r="D31" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="14">
+      <c r="B32" s="12">
         <v>44836</v>
       </c>
-      <c r="C32" s="49">
+      <c r="C32" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>77</v>
+      <c r="D32" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="14">
+      <c r="B33" s="12">
         <v>44837</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="36">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>77</v>
+      <c r="D33" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="14">
+      <c r="B34" s="12">
         <v>44838</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C34" s="36">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>77</v>
+      <c r="D34" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="14">
+      <c r="B35" s="12">
         <v>44839</v>
       </c>
-      <c r="C35" s="49">
+      <c r="C35" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>77</v>
+      <c r="D35" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="14">
+      <c r="B36" s="12">
         <v>44840</v>
       </c>
-      <c r="C36" s="49">
+      <c r="C36" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>77</v>
+      <c r="D36" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="14">
+        <v>69</v>
+      </c>
+      <c r="B37" s="12">
         <v>44841</v>
       </c>
-      <c r="C37" s="49">
+      <c r="C37" s="36">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>77</v>
+      <c r="D37" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="14">
+      <c r="B38" s="12">
         <v>44842</v>
       </c>
-      <c r="C38" s="49">
+      <c r="C38" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="14">
+      <c r="B39" s="12">
         <v>44843</v>
       </c>
-      <c r="C39" s="49">
+      <c r="C39" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
